--- a/docs/需求.xlsx
+++ b/docs/需求.xlsx
@@ -148,7 +148,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -157,6 +157,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -498,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:D70"/>
+  <dimension ref="B6:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -596,32 +599,42 @@
     <row r="32" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D36" s="2"/>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B46" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B48" t="s">
+    <row r="48" spans="2:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
@@ -669,6 +682,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B48:L48"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
